--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446005.4082903678</v>
+        <v>459421.3585917861</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013562.232422612</v>
+        <v>2430017.109815902</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13570796.126574</v>
+        <v>12998863.55190714</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7281423.927184987</v>
+        <v>7639785.280256284</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.616349125597855</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>171.9862250984872</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>171.9862250984872</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>151.788521061397</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.4947678522028</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>171.9862250984872</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151.788521061397</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>171.9862250984872</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>171.9862250984872</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,61 +1054,61 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>151.4854670667476</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>41.3620166032897</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>171.9862250984872</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>171.9862250984872</v>
+        <v>157.8069830686303</v>
       </c>
       <c r="F11" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>97.00706449193589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1452,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>134.1699087425679</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>151.4854670667476</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1537,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>9.275596830496951</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>34.45403149117948</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>171.5403759203735</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>157.8069830686303</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>151.4854670667476</v>
+        <v>124.5388004963448</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>171.9862250984872</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>171.9862250984872</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1768,25 +1768,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>134.6751203255737</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>40.76530335753564</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>151.4854670667476</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>353.869386824852</v>
       </c>
       <c r="E17" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>171.9862250984872</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.95445514355102</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>171.9862250984872</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
-        <v>171.9862250984872</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>171.9862250984872</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>151.4854670667476</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>171.9862250984872</v>
+        <v>201.3302879382942</v>
       </c>
       <c r="U19" t="n">
-        <v>171.9862250984872</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2084,22 +2084,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>173.486549690856</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.0115294480436</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,13 +2324,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>11.28766011054642</v>
+        <v>296.7607853996629</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2375,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2457,7 +2457,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>122.5935461816079</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>268.872536391812</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>339.0399185806814</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>220.5896529608638</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>94.63926978364023</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,16 +2837,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>159.2533276790777</v>
+        <v>22.02087812852552</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2883,7 +2883,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>398.6601030860786</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>307.186118632148</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3117,7 +3117,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.5310119231965</v>
@@ -3184,31 +3184,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>185.3997192893053</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>280.1033070984082</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>169.3575929423588</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>74.53436060286485</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>155.2114886365811</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,10 +3518,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>99.37803318259425</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>165.528107236581</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3630,7 +3630,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3645,7 +3645,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034777</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>4.553842565068934</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>144.5144179861489</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>7.957238779660168</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>353.2610923604689</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>117.3593846743012</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553078</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>54.96078537989674</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>43.31785343913997</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3977,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>171.9862250984874</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>157.8069830686303</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>97.00706449193589</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>171.9862250984874</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>171.9862250984874</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4059,16 +4059,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>98.09531059045651</v>
       </c>
       <c r="E45" t="n">
-        <v>16.70139050020986</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,13 +4113,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>171.9862250984874</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4135,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>106.2855078782106</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>171.9862250984874</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>171.9862250984874</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>171.9862250984874</v>
+        <v>125.8721928563319</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.75889800787898</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C2" t="n">
-        <v>13.75889800787898</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D2" t="n">
-        <v>13.75889800787898</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E2" t="n">
-        <v>13.75889800787898</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F2" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>13.75889800787898</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>108.5571692642452</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>278.8235321117476</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>449.0898949592499</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>598.284845101898</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>686.3122245095067</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>534.9292770942039</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>361.2058173987623</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>361.2058173987623</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>361.2058173987623</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>361.2058173987623</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W2" t="n">
-        <v>361.2058173987623</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X2" t="n">
-        <v>187.4823577033206</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.75889800787898</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>139.1164580657164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>309.3828209132188</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>479.6491837607211</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>649.9155466082235</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>687.944900393949</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>687.944900393949</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>687.944900393949</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>514.5275558446178</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>340.8040961491762</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>167.0806364537345</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>13.75889800787898</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>41.07302301559196</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>80.26106120781414</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>123.9519118632504</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.4823577033206</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>187.4823577033206</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>187.4823577033206</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>187.4823577033206</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>187.4823577033206</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>187.4823577033206</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>187.4823577033206</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>27.95086170879381</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>198.2172245562962</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>368.4835874037985</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>538.7499502513009</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>687.944900393949</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>677.8532850257219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>677.8532850257219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>534.9292770942039</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>534.9292770942039</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>361.2058173987623</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>361.2058173987623</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>187.4823577033206</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>187.4823577033206</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.4823577033206</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.75889800787898</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C6" t="n">
-        <v>13.75889800787898</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D6" t="n">
-        <v>13.75889800787898</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E6" t="n">
-        <v>13.75889800787898</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F6" t="n">
-        <v>13.75889800787898</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G6" t="n">
-        <v>13.75889800787898</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H6" t="n">
-        <v>13.75889800787898</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="I6" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>13.75889800787898</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>184.0252608553813</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>354.2916237028837</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>517.6785375464466</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>687.944900393949</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>687.944900393949</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>514.5275558446178</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>514.5275558446178</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>514.5275558446178</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>340.8040961491762</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>340.8040961491762</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>167.0806364537345</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.0806364537345</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.2911884981497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>41.07302301559196</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>80.26106120781414</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>123.9519118632504</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>148.2911884981497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>148.2911884981497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>148.2911884981497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>148.2911884981497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.2911884981497</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>514.2214406985073</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>340.4979810030657</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>166.774521307624</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>166.774521307624</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>13.75889800787898</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>13.75889800787898</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>27.95086170879381</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>198.2172245562962</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>368.4835874037985</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>538.7499502513009</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>687.944900393949</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>687.944900393949</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>687.944900393949</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>687.944900393949</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T8" t="n">
-        <v>687.944900393949</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>687.944900393949</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>687.944900393949</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W8" t="n">
-        <v>687.944900393949</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>687.944900393949</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>687.944900393949</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>340.8040961491762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>340.8040961491762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>340.8040961491762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>340.8040961491762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>194.2695381760612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>55.53871275867667</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>13.75889800787898</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>13.75889800787898</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>184.0252608553813</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>347.4121746989442</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>517.6785375464466</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P9" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>514.5275558446178</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>514.5275558446178</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>340.8040961491762</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>340.8040961491762</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>340.8040961491762</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>340.8040961491762</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>340.8040961491762</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>13.75889800787898</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>41.07302301559196</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>80.26106120781414</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>123.9519118632504</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>148.2911884981497</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>148.2911884981497</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.2911884981497</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>148.2911884981497</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.75889800787898</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>632.9162109244422</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="C11" t="n">
-        <v>632.9162109244422</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="D11" t="n">
-        <v>632.9162109244422</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="E11" t="n">
-        <v>459.1927512290006</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F11" t="n">
-        <v>285.4692915335589</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>187.4823577033206</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>129.5267542408287</v>
+        <v>135.0489993431625</v>
       </c>
       <c r="K11" t="n">
-        <v>129.5267542408287</v>
+        <v>373.6531453320449</v>
       </c>
       <c r="L11" t="n">
-        <v>133.3629298849777</v>
+        <v>470.4186185503882</v>
       </c>
       <c r="M11" t="n">
-        <v>298.5820685752124</v>
+        <v>506.3565405505196</v>
       </c>
       <c r="N11" t="n">
-        <v>339.7153121040795</v>
+        <v>547.4897840793867</v>
       </c>
       <c r="O11" t="n">
-        <v>365.2210063194764</v>
+        <v>572.9954782947835</v>
       </c>
       <c r="P11" t="n">
-        <v>535.4873691669787</v>
+        <v>811.599624283666</v>
       </c>
       <c r="Q11" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>632.9162109244422</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="S11" t="n">
-        <v>632.9162109244422</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="T11" t="n">
-        <v>632.9162109244422</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="U11" t="n">
-        <v>632.9162109244422</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="V11" t="n">
-        <v>632.9162109244422</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="W11" t="n">
-        <v>632.9162109244422</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="X11" t="n">
-        <v>632.9162109244422</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="Y11" t="n">
-        <v>632.9162109244422</v>
+        <v>909.0284660411295</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.75889800787898</v>
+        <v>755.6708125663772</v>
       </c>
       <c r="C12" t="n">
-        <v>13.75889800787898</v>
+        <v>755.6708125663772</v>
       </c>
       <c r="D12" t="n">
-        <v>13.75889800787898</v>
+        <v>606.7364029051259</v>
       </c>
       <c r="E12" t="n">
-        <v>13.75889800787898</v>
+        <v>471.2112425590977</v>
       </c>
       <c r="F12" t="n">
-        <v>13.75889800787898</v>
+        <v>324.6766845859827</v>
       </c>
       <c r="G12" t="n">
-        <v>13.75889800787898</v>
+        <v>186.7665715322488</v>
       </c>
       <c r="H12" t="n">
-        <v>13.75889800787898</v>
+        <v>81.32378955719068</v>
       </c>
       <c r="I12" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>89.01606040800883</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>259.2824232555112</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="L12" t="n">
-        <v>296.7663995007584</v>
+        <v>360.8913127748109</v>
       </c>
       <c r="M12" t="n">
-        <v>388.2887251106316</v>
+        <v>423.9902132203419</v>
       </c>
       <c r="N12" t="n">
-        <v>467.4663106100649</v>
+        <v>503.1677987197752</v>
       </c>
       <c r="O12" t="n">
-        <v>517.6785375464466</v>
+        <v>553.3800256561569</v>
       </c>
       <c r="P12" t="n">
-        <v>687.944900393949</v>
+        <v>791.9841716450394</v>
       </c>
       <c r="Q12" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>687.944900393949</v>
+        <v>913.8437849224612</v>
       </c>
       <c r="S12" t="n">
-        <v>687.944900393949</v>
+        <v>755.6708125663772</v>
       </c>
       <c r="T12" t="n">
-        <v>514.2214406985073</v>
+        <v>755.6708125663772</v>
       </c>
       <c r="U12" t="n">
-        <v>340.4979810030657</v>
+        <v>755.6708125663772</v>
       </c>
       <c r="V12" t="n">
-        <v>166.774521307624</v>
+        <v>755.6708125663772</v>
       </c>
       <c r="W12" t="n">
-        <v>166.774521307624</v>
+        <v>755.6708125663772</v>
       </c>
       <c r="X12" t="n">
-        <v>13.75889800787898</v>
+        <v>755.6708125663772</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.75889800787898</v>
+        <v>755.6708125663772</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>623.7259292362785</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="C13" t="n">
-        <v>623.7259292362785</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="D13" t="n">
-        <v>623.7259292362785</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="E13" t="n">
-        <v>623.7259292362785</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="F13" t="n">
-        <v>476.8359817383682</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8361814767006</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="H13" t="n">
-        <v>150.0878089092307</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="I13" t="n">
-        <v>13.75889800787898</v>
+        <v>64.93766754307838</v>
       </c>
       <c r="J13" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>70.06109107414713</v>
+        <v>75.58333617648087</v>
       </c>
       <c r="L13" t="n">
-        <v>197.6349486353056</v>
+        <v>203.1571937376393</v>
       </c>
       <c r="M13" t="n">
-        <v>342.5328173533355</v>
+        <v>348.0550624556693</v>
       </c>
       <c r="N13" t="n">
-        <v>489.4199550377647</v>
+        <v>494.9422001400984</v>
       </c>
       <c r="O13" t="n">
-        <v>609.0777055470048</v>
+        <v>614.5999506493386</v>
       </c>
       <c r="P13" t="n">
-        <v>687.944900393949</v>
+        <v>693.4671454962827</v>
       </c>
       <c r="Q13" t="n">
-        <v>658.5279812475709</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="R13" t="n">
-        <v>623.7259292362785</v>
+        <v>515.9035677840886</v>
       </c>
       <c r="S13" t="n">
-        <v>623.7259292362785</v>
+        <v>301.6151446022513</v>
       </c>
       <c r="T13" t="n">
-        <v>623.7259292362785</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="U13" t="n">
-        <v>623.7259292362785</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="V13" t="n">
-        <v>623.7259292362785</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="W13" t="n">
-        <v>623.7259292362785</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="X13" t="n">
-        <v>623.7259292362785</v>
+        <v>74.30695727085308</v>
       </c>
       <c r="Y13" t="n">
-        <v>623.7259292362785</v>
+        <v>74.30695727085308</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>687.944900393949</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C14" t="n">
-        <v>514.2214406985073</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>514.2214406985073</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>514.2214406985073</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>340.948333708231</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>167.2248740127893</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>167.2248740127893</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>129.5267542408287</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>129.5267542408287</v>
+        <v>186.8011013284606</v>
       </c>
       <c r="L14" t="n">
-        <v>133.3629298849777</v>
+        <v>425.4052473173431</v>
       </c>
       <c r="M14" t="n">
-        <v>169.3008518851091</v>
+        <v>461.3431693174745</v>
       </c>
       <c r="N14" t="n">
-        <v>210.4340954139762</v>
+        <v>699.9473153063569</v>
       </c>
       <c r="O14" t="n">
-        <v>380.7004582614786</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="P14" t="n">
-        <v>550.966821108981</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>687.944900393949</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="S14" t="n">
-        <v>687.944900393949</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T14" t="n">
-        <v>687.944900393949</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>687.944900393949</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>687.944900393949</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W14" t="n">
-        <v>687.944900393949</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>687.944900393949</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>687.944900393949</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.774521307624</v>
+        <v>145.0779112883388</v>
       </c>
       <c r="C15" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>13.75889800787898</v>
+        <v>148.1004593832643</v>
       </c>
       <c r="L15" t="n">
-        <v>184.0252608553813</v>
+        <v>386.7046053721467</v>
       </c>
       <c r="M15" t="n">
-        <v>268.2345891995109</v>
+        <v>625.3087513610292</v>
       </c>
       <c r="N15" t="n">
-        <v>347.4121746989442</v>
+        <v>704.4863368604625</v>
       </c>
       <c r="O15" t="n">
-        <v>517.6785375464466</v>
+        <v>943.090482849345</v>
       </c>
       <c r="P15" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>687.944900393949</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>514.2214406985073</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W15" t="n">
-        <v>340.4979810030657</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X15" t="n">
-        <v>166.774521307624</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y15" t="n">
-        <v>166.774521307624</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.3813226817549</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="C16" t="n">
-        <v>510.3813226817549</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="D16" t="n">
-        <v>360.2646832694192</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="E16" t="n">
-        <v>360.2646832694192</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="F16" t="n">
-        <v>360.2646832694192</v>
+        <v>528.0147512735675</v>
       </c>
       <c r="G16" t="n">
-        <v>191.2648830077516</v>
+        <v>359.0149510119</v>
       </c>
       <c r="H16" t="n">
-        <v>150.0878089092307</v>
+        <v>201.2665784444301</v>
       </c>
       <c r="I16" t="n">
-        <v>13.75889800787898</v>
+        <v>64.93766754307838</v>
       </c>
       <c r="J16" t="n">
-        <v>13.75889800787898</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>70.06109107414713</v>
+        <v>75.58333617648087</v>
       </c>
       <c r="L16" t="n">
-        <v>197.6349486353056</v>
+        <v>203.1571937376393</v>
       </c>
       <c r="M16" t="n">
-        <v>342.5328173533355</v>
+        <v>348.0550624556693</v>
       </c>
       <c r="N16" t="n">
-        <v>489.4199550377646</v>
+        <v>494.9422001400984</v>
       </c>
       <c r="O16" t="n">
-        <v>609.0777055470048</v>
+        <v>614.5999506493386</v>
       </c>
       <c r="P16" t="n">
-        <v>687.944900393949</v>
+        <v>693.4671454962827</v>
       </c>
       <c r="Q16" t="n">
-        <v>658.5279812475709</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="R16" t="n">
-        <v>510.3813226817549</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="S16" t="n">
-        <v>510.3813226817549</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="T16" t="n">
-        <v>510.3813226817549</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="U16" t="n">
-        <v>510.3813226817549</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="V16" t="n">
-        <v>510.3813226817549</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="W16" t="n">
-        <v>510.3813226817549</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="X16" t="n">
-        <v>510.3813226817549</v>
+        <v>664.0502263499046</v>
       </c>
       <c r="Y16" t="n">
-        <v>510.3813226817549</v>
+        <v>664.0502263499046</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>687.944900393949</v>
+        <v>982.816591002696</v>
       </c>
       <c r="C17" t="n">
-        <v>534.9292770942039</v>
+        <v>982.816591002696</v>
       </c>
       <c r="D17" t="n">
-        <v>534.9292770942039</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E17" t="n">
-        <v>361.2058173987623</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F17" t="n">
-        <v>361.2058173987623</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>187.4823577033206</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>13.75889800787898</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>13.75889800787898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>129.5267542408287</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>129.5267542408287</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>169.4489492565771</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
-        <v>339.7153121040795</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>509.9816749515819</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>535.4873691669787</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>535.4873691669787</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>687.944900393949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>687.944900393949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>687.944900393949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>687.944900393949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>687.944900393949</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>687.944900393949</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W17" t="n">
-        <v>687.944900393949</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X17" t="n">
-        <v>687.944900393949</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y17" t="n">
-        <v>687.944900393949</v>
+        <v>1369.416431066818</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>151.6690110616128</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C18" t="n">
-        <v>151.6690110616128</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D18" t="n">
-        <v>151.6690110616128</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E18" t="n">
-        <v>151.6690110616128</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F18" t="n">
-        <v>151.6690110616128</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G18" t="n">
-        <v>13.75889800787898</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>13.75889800787898</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I18" t="n">
-        <v>13.75889800787898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>13.75889800787898</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>13.75889800787898</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>184.0252608553813</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>354.2916237028837</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>433.4692092023171</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>603.7355720498194</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>687.944900393949</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>687.944900393949</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>672.8393901479378</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>672.8393901479378</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>672.8393901479378</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
-        <v>499.1159304524962</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>325.3924707570545</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>325.3924707570545</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>151.6690110616128</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>151.6690110616128</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.75889800787898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>13.75889800787898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>13.75889800787898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>13.75889800787898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>13.75889800787898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>13.75889800787898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>13.75889800787898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>13.75889800787898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>13.75889800787898</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
-        <v>70.06109107414713</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>197.6349486353056</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>342.5328173533355</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>489.4199550377646</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>609.0777055470048</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>687.944900393949</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>687.944900393949</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>687.944900393949</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>534.9292770942039</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2058173987623</v>
+        <v>524.7650569960363</v>
       </c>
       <c r="U19" t="n">
-        <v>187.4823577033206</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V19" t="n">
-        <v>13.75889800787898</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W19" t="n">
-        <v>13.75889800787898</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X19" t="n">
-        <v>13.75889800787898</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.75889800787898</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1920.409918978289</v>
+        <v>751.6104138473593</v>
       </c>
       <c r="C20" t="n">
-        <v>1551.447402037877</v>
+        <v>382.6478969069476</v>
       </c>
       <c r="D20" t="n">
-        <v>1193.181703431127</v>
+        <v>382.6478969069476</v>
       </c>
       <c r="E20" t="n">
-        <v>807.3934508328825</v>
+        <v>382.6478969069476</v>
       </c>
       <c r="F20" t="n">
-        <v>396.407546043275</v>
+        <v>382.6478969069476</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>382.6478969069476</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018222</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X20" t="n">
-        <v>2697.149091018222</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="Y20" t="n">
-        <v>2307.009759042411</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204945</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M21" t="n">
         <v>1313.210296315296</v>
@@ -5844,28 +5844,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V22" t="n">
-        <v>502.7251118619119</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W22" t="n">
-        <v>502.7251118619119</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X22" t="n">
-        <v>274.7355609638946</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083245</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1589.347031634718</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C23" t="n">
-        <v>1220.384514694307</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D23" t="n">
-        <v>862.1188160875561</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E23" t="n">
-        <v>476.3305634893118</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="F23" t="n">
-        <v>65.34465869970427</v>
+        <v>353.7013509109331</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6008,31 +6008,31 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>2366.086203674652</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y23" t="n">
-        <v>1975.94687169884</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6063,46 +6063,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>325.6879402326646</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C25" t="n">
-        <v>325.6879402326646</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D25" t="n">
-        <v>325.6879402326646</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
-        <v>177.7748466502715</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>177.7748466502715</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6178,19 +6178,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064344</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y25" t="n">
-        <v>507.3364050629043</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1920.409918978289</v>
+        <v>1073.534970481816</v>
       </c>
       <c r="C26" t="n">
-        <v>1551.447402037877</v>
+        <v>1073.534970481816</v>
       </c>
       <c r="D26" t="n">
-        <v>1193.181703431127</v>
+        <v>1073.534970481816</v>
       </c>
       <c r="E26" t="n">
-        <v>807.3934508328825</v>
+        <v>687.7467178835718</v>
       </c>
       <c r="F26" t="n">
-        <v>396.407546043275</v>
+        <v>276.7608130939643</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>276.7608130939643</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6224,19 +6224,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6251,25 +6251,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018222</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y26" t="n">
-        <v>2307.009759042411</v>
+        <v>1073.534970481816</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6303,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417901</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>597.8010803716834</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>766.9259543826058</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C29" t="n">
-        <v>766.9259543826058</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D29" t="n">
-        <v>766.9259543826058</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
@@ -6473,40 +6473,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2481.258454398132</v>
+        <v>2674.905779777288</v>
       </c>
       <c r="U29" t="n">
-        <v>2227.496669036224</v>
+        <v>2674.905779777288</v>
       </c>
       <c r="V29" t="n">
-        <v>1896.433781692653</v>
+        <v>2343.842892433717</v>
       </c>
       <c r="W29" t="n">
-        <v>1543.665126422539</v>
+        <v>1991.074237163603</v>
       </c>
       <c r="X29" t="n">
-        <v>1543.665126422539</v>
+        <v>1617.608478902523</v>
       </c>
       <c r="Y29" t="n">
-        <v>1153.525794446728</v>
+        <v>1227.469146926711</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6537,46 +6537,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6585,7 +6585,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6646,25 +6646,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1236.578376364605</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C32" t="n">
-        <v>867.6158594241929</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D32" t="n">
-        <v>867.6158594241929</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
-        <v>867.6158594241929</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>456.6299546345853</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>2013.317548404538</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="Y32" t="n">
-        <v>1623.178216428726</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6798,22 +6798,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6822,7 +6822,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2697.149091018223</v>
+        <v>2328.228182461412</v>
       </c>
       <c r="C34" t="n">
-        <v>2697.149091018223</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="D34" t="n">
-        <v>2697.149091018223</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="E34" t="n">
-        <v>2678.586644293418</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="F34" t="n">
-        <v>2531.696696795508</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G34" t="n">
-        <v>2362.696896533841</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.948523966371</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I34" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6862,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y34" t="n">
-        <v>2697.149091018223</v>
+        <v>2509.876647291651</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247702</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C35" t="n">
-        <v>1491.915471247702</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D35" t="n">
-        <v>1133.649772640952</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E35" t="n">
-        <v>747.8615200427075</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F35" t="n">
-        <v>336.8756152531</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>2526.08081531887</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7023,7 +7023,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7035,22 +7035,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7059,7 +7059,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W37" t="n">
-        <v>438.7118141694738</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X37" t="n">
-        <v>210.7222632714565</v>
+        <v>2469.159540120206</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>2248.366960976676</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1422.14692331494</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="C38" t="n">
-        <v>1422.14692331494</v>
+        <v>2054.523217580367</v>
       </c>
       <c r="D38" t="n">
-        <v>1422.14692331494</v>
+        <v>1696.257518973617</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.358670716696</v>
+        <v>1310.469266375372</v>
       </c>
       <c r="F38" t="n">
-        <v>625.3727659270879</v>
+        <v>899.4833615857649</v>
       </c>
       <c r="G38" t="n">
-        <v>207.4089578252748</v>
+        <v>481.5195534839518</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>154.3248335199546</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036446</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V38" t="n">
-        <v>2366.086203674652</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W38" t="n">
-        <v>2366.086203674652</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X38" t="n">
-        <v>2198.886095354873</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="Y38" t="n">
-        <v>1808.746763379062</v>
+        <v>2423.485734520779</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036446</v>
@@ -7351,31 +7351,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>550.5654064942404</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T40" t="n">
-        <v>404.5912469122717</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U40" t="n">
-        <v>404.5912469122717</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V40" t="n">
-        <v>404.5912469122717</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W40" t="n">
-        <v>404.5912469122717</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X40" t="n">
-        <v>404.5912469122717</v>
+        <v>58.54282279518156</v>
       </c>
       <c r="Y40" t="n">
-        <v>404.5912469122717</v>
+        <v>58.54282279518156</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1465.19530355422</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>1096.232786613808</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>737.9670880070576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1377017843616</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>54.65394278815148</v>
       </c>
       <c r="M41" t="n">
-        <v>1362.238747280443</v>
+        <v>293.2580887770339</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>334.3913323059011</v>
       </c>
       <c r="O41" t="n">
-        <v>2238.843319642689</v>
+        <v>572.9954782947835</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>811.599624283666</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>732.8509783552997</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520779</v>
+        <v>514.2163113273625</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>270.7675346832625</v>
       </c>
       <c r="V41" t="n">
-        <v>1838.661061815299</v>
+        <v>270.7675346832625</v>
       </c>
       <c r="W41" t="n">
-        <v>1838.661061815299</v>
+        <v>270.7675346832625</v>
       </c>
       <c r="X41" t="n">
-        <v>1465.19530355422</v>
+        <v>27.31875803916239</v>
       </c>
       <c r="Y41" t="n">
-        <v>1465.19530355422</v>
+        <v>27.31875803916239</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>471.5164604011399</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>297.0634311200129</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>297.0634311200129</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>137.8259761145574</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>559.5883355335086</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>798.1924815223911</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>848.4047084587728</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>913.8437849224612</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>913.8437849224612</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>714.96523704524</v>
       </c>
       <c r="U42" t="n">
-        <v>2061.714576167582</v>
+        <v>714.96523704524</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>714.96523704524</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>471.5164604011399</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>471.5164604011399</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>471.5164604011399</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.69838933464726</v>
+        <v>493.3001915351379</v>
       </c>
       <c r="C43" t="n">
-        <v>97.69838933464726</v>
+        <v>493.3001915351379</v>
       </c>
       <c r="D43" t="n">
-        <v>97.69838933464726</v>
+        <v>437.7842467069594</v>
       </c>
       <c r="E43" t="n">
-        <v>97.69838933464726</v>
+        <v>289.8711531245663</v>
       </c>
       <c r="F43" t="n">
-        <v>97.69838933464726</v>
+        <v>289.8711531245663</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>289.8711531245663</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>289.8711531245663</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>289.8711531245663</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>289.8711531245663</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866326</v>
+        <v>346.1733461908344</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>473.7472037519929</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>618.6450724700228</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>765.5322101544519</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>885.1899606636921</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>736.748968179238</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064344</v>
+        <v>493.3001915351379</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064344</v>
+        <v>493.3001915351379</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064344</v>
+        <v>493.3001915351379</v>
       </c>
       <c r="X43" t="n">
-        <v>500.1394333084171</v>
+        <v>493.3001915351379</v>
       </c>
       <c r="Y43" t="n">
-        <v>279.346854164887</v>
+        <v>493.3001915351379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>187.4823577033208</v>
+        <v>665.5796893970294</v>
       </c>
       <c r="C44" t="n">
-        <v>13.75889800787899</v>
+        <v>665.5796893970294</v>
       </c>
       <c r="D44" t="n">
-        <v>13.75889800787899</v>
+        <v>422.1309127529293</v>
       </c>
       <c r="E44" t="n">
-        <v>13.75889800787899</v>
+        <v>178.6821361088292</v>
       </c>
       <c r="F44" t="n">
-        <v>13.75889800787899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>13.75889800787899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>13.75889800787899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>13.75889800787899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>117.8834779429757</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>117.8834779429757</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="L44" t="n">
-        <v>288.1498407904782</v>
+        <v>261.7214647432442</v>
       </c>
       <c r="M44" t="n">
-        <v>324.0877627906096</v>
+        <v>500.3256107321266</v>
       </c>
       <c r="N44" t="n">
-        <v>365.2210063194767</v>
+        <v>738.9297567210091</v>
       </c>
       <c r="O44" t="n">
-        <v>535.4873691669792</v>
+        <v>764.4354509364059</v>
       </c>
       <c r="P44" t="n">
-        <v>535.4873691669792</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>687.9449003939494</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>632.9162109244427</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="S44" t="n">
-        <v>632.9162109244427</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="T44" t="n">
-        <v>632.9162109244427</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="U44" t="n">
-        <v>534.9292770942044</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="V44" t="n">
-        <v>361.2058173987626</v>
+        <v>909.0284660411295</v>
       </c>
       <c r="W44" t="n">
-        <v>187.4823577033208</v>
+        <v>665.5796893970294</v>
       </c>
       <c r="X44" t="n">
-        <v>187.4823577033208</v>
+        <v>665.5796893970294</v>
       </c>
       <c r="Y44" t="n">
-        <v>187.4823577033208</v>
+        <v>665.5796893970294</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>464.0080701103326</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C45" t="n">
-        <v>464.0080701103326</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D45" t="n">
-        <v>315.0736604490813</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E45" t="n">
-        <v>298.2035690347279</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>151.6690110616129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>13.75889800787899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>13.75889800787899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>13.75889800787899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>13.75889800787899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>184.0252608553815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>221.5092371006288</v>
+        <v>227.2780448826976</v>
       </c>
       <c r="M45" t="n">
-        <v>391.7755999481312</v>
+        <v>465.8821908715801</v>
       </c>
       <c r="N45" t="n">
-        <v>470.9531854475646</v>
+        <v>704.4863368604625</v>
       </c>
       <c r="O45" t="n">
-        <v>521.1654123839462</v>
+        <v>943.090482849345</v>
       </c>
       <c r="P45" t="n">
-        <v>687.9449003939494</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>687.9449003939494</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>637.7315298057744</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>637.7315298057744</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>637.7315298057744</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>637.7315298057744</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>637.7315298057744</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W45" t="n">
-        <v>464.0080701103326</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X45" t="n">
-        <v>464.0080701103326</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y45" t="n">
-        <v>464.0080701103326</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>59.41542244074464</v>
+        <v>338.3339654504554</v>
       </c>
       <c r="C46" t="n">
-        <v>59.41542244074464</v>
+        <v>169.3977825225485</v>
       </c>
       <c r="D46" t="n">
-        <v>59.41542244074464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>59.41542244074464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>59.41542244074464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>59.41542244074464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>59.41542244074464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>59.41542244074464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>13.75889800787899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>70.06109107414713</v>
+        <v>75.58333617648087</v>
       </c>
       <c r="L46" t="n">
-        <v>197.6349486353056</v>
+        <v>203.1571937376393</v>
       </c>
       <c r="M46" t="n">
-        <v>342.5328173533355</v>
+        <v>348.0550624556693</v>
       </c>
       <c r="N46" t="n">
-        <v>489.4199550377646</v>
+        <v>494.9422001400984</v>
       </c>
       <c r="O46" t="n">
-        <v>609.0777055470048</v>
+        <v>614.5999506493386</v>
       </c>
       <c r="P46" t="n">
-        <v>687.944900393949</v>
+        <v>693.4671454962827</v>
       </c>
       <c r="Q46" t="n">
-        <v>687.9449003939494</v>
+        <v>693.4671454962827</v>
       </c>
       <c r="R46" t="n">
-        <v>687.9449003939494</v>
+        <v>693.4671454962827</v>
       </c>
       <c r="S46" t="n">
-        <v>580.58580152707</v>
+        <v>693.4671454962827</v>
       </c>
       <c r="T46" t="n">
-        <v>406.8623418316282</v>
+        <v>693.4671454962827</v>
       </c>
       <c r="U46" t="n">
-        <v>233.1388821361864</v>
+        <v>693.4671454962827</v>
       </c>
       <c r="V46" t="n">
-        <v>233.1388821361864</v>
+        <v>693.4671454962827</v>
       </c>
       <c r="W46" t="n">
-        <v>59.41542244074464</v>
+        <v>566.3235163484727</v>
       </c>
       <c r="X46" t="n">
-        <v>59.41542244074464</v>
+        <v>338.3339654504554</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.41542244074464</v>
+        <v>338.3339654504554</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>331.5222445218723</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>402.3324583257599</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>401.3992886950782</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>310.5406048783614</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M3" t="n">
-        <v>314.1202590205056</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>303.3279371818205</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>181.0097331168944</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>234.4251679145915</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>407.7526400684745</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>402.3324583257599</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>401.3992886950782</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>310.5406048783614</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>314.1202590205056</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>296.3789987940029</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O6" t="n">
-        <v>314.5824695429317</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>234.4251679145915</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>407.7526400684745</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>402.3324583257599</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>401.3992886950782</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>314.1202590205056</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>296.3789987940029</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>314.5824695429317</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>305.9606325128175</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>26.92237113682279</v>
+        <v>267.9366600144818</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>93.86797734767103</v>
       </c>
       <c r="M11" t="n">
-        <v>130.5870875657609</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8473169582901</v>
+        <v>253.8753807374619</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
-        <v>178.625885907936</v>
+        <v>247.6539496871079</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>66.18388629340245</v>
       </c>
       <c r="M12" t="n">
-        <v>28.71053046903248</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>150.8077678648597</v>
+        <v>219.8358316440315</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.26619292211498</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>52.1593866539427</v>
       </c>
       <c r="K14" t="n">
-        <v>26.92237113682279</v>
+        <v>196.134450145154</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>237.1393639845793</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>199.4655580404195</v>
       </c>
       <c r="O14" t="n">
-        <v>146.2228976081874</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8473169582901</v>
+        <v>253.8753807374619</v>
       </c>
       <c r="Q14" t="n">
-        <v>196.6791806174782</v>
+        <v>58.31748437003574</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,22 +9006,22 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>6.639660809448799</v>
+        <v>136.7601822973796</v>
       </c>
       <c r="L15" t="n">
-        <v>134.1236228305607</v>
+        <v>203.1516866097325</v>
       </c>
       <c r="M15" t="n">
-        <v>21.32366454403896</v>
+        <v>177.2780258013651</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>121.266803950627</v>
+        <v>190.2948677297988</v>
       </c>
       <c r="P15" t="n">
-        <v>150.8077678648597</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>36.26619292211498</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>26.92237113682279</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>36.45052461777721</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>135.6852937852232</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>130.4374942612477</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>12.86109185980285</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>6.639660809448799</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>134.1236228305607</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>108.2499620221933</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>121.266803950627</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>63.88147038670533</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.26619292211498</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>346.2692436516221</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627449</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,25 +11057,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>52.1593866539427</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>26.92237113682279</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>31.85517579170686</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>204.713357564395</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>215.2509613873592</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>253.8753807374619</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>247.6539496871079</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>203.1516866097325</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>435.923890002883</v>
+        <v>161.0369297873223</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>95.64219635411331</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>36.26619292211498</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>157.3357300227273</v>
+        <v>52.1593866539427</v>
       </c>
       <c r="K44" t="n">
-        <v>26.92237113682279</v>
+        <v>267.9366600144818</v>
       </c>
       <c r="L44" t="n">
-        <v>168.1113002054076</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>204.713357564395</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>199.4655580404195</v>
       </c>
       <c r="O44" t="n">
-        <v>146.2228976081875</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>12.86109185980285</v>
+        <v>214.4991772883183</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>58.31748437003574</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,22 +11376,22 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>178.6258859079362</v>
+        <v>6.639660809448799</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>172.235278310341</v>
       </c>
       <c r="M45" t="n">
-        <v>108.2499620221934</v>
+        <v>177.2780258013651</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>161.0369297873223</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>190.2948677297988</v>
       </c>
       <c r="P45" t="n">
-        <v>147.285672069406</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>36.26619292211498</v>
@@ -22556,7 +22556,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>354.4504772539638</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.374350088946949</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>37.0338444877581</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>197.7448755799818</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.2517135575663</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>28.17850359633437</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>53.95515698248758</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>81.01206608802829</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22802,7 +22802,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>38.48966447191867</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22826,31 +22826,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>67.52530173404256</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>79.35942780934926</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>177.2547436189258</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22860,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.74466258847036</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22881,7 +22881,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>39.33893758286199</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22911,7 +22911,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22920,16 +22920,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>60.81436205093803</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>33.78676010499024</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22942,7 +22942,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22996,7 +22996,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,25 +23018,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>210.7476165649933</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>193.2866666725203</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>182.6968165221957</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>255.3905786749639</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23063,13 +23063,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23109,13 +23109,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>70.87342763320676</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23148,25 +23148,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>53.95515698248758</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23200,10 +23200,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,16 +23218,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23264,16 +23264,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>209.9441449737745</v>
+        <v>224.1233870036314</v>
       </c>
       <c r="F11" t="n">
-        <v>234.8898206432242</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>316.7771055288591</v>
+        <v>172.7698811431359</v>
       </c>
       <c r="H11" t="n">
-        <v>151.9365476658699</v>
+        <v>82.90848388669809</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23340,22 +23340,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>23.47517171283303</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,25 +23382,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>24.9035372999617</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>53.9017026903814</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
-        <v>60.81436205093803</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>54.28751813672991</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23425,19 +23425,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>125.6900249618413</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>112.2111604889784</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23495,25 +23495,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>193.2866666725203</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>235.3356698213379</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>241.7979449223077</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>16.60872974034118</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23552,7 +23552,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,10 +23571,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>21.22303192156818</v>
+        <v>48.16969849197095</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23631,16 +23631,16 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>60.81436205093803</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>79.70875806243237</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>33.78676010499024</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23656,25 +23656,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>10.74592769735753</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>115.4055854842595</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>213.78742470426</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0.8136547958309848</v>
       </c>
       <c r="E17" t="n">
-        <v>209.9441449737745</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>241.7979449223077</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>151.9365476658699</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,19 +23786,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.75678173874228</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>53.9017026903814</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>60.81436205093803</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>33.78676010499024</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23938,16 +23938,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>60.66007188327134</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>53.04888035959704</v>
+        <v>23.70481751979008</v>
       </c>
       <c r="U19" t="n">
-        <v>114.2956491434905</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>80.15141822534076</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23972,22 +23972,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>74.74425144011354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>150.4362230735012</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24145,10 +24145,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>24.95409234429458</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>28.9878097027507</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,13 +24212,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>402.4965099102486</v>
+        <v>117.0233846211321</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24263,13 +24263,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>44.71625607744298</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24418,10 +24418,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>17.40933785016568</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>74.74425144011354</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>103.3331198034934</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24491,7 +24491,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24500,13 +24500,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9453835684546</v>
       </c>
     </row>
     <row r="29">
@@ -24680,22 +24680,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>57.19499267858009</v>
+        <v>194.4274422291323</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24886,13 +24886,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>56.01837628787166</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24920,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>15.12406693471638</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24974,13 +24974,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>62.54498204632108</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,31 +25072,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>33.18493406278947</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25166,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>133.6808629223868</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>5.058119866612657</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>105.2976195790724</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25388,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,10 +25406,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>52.553283062267</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>204.202993441888</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>175.2781376168683</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25591,16 +25591,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>80.52068747193533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>374.7766028838204</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>28.66927771179286</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25643,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25676,22 +25676,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>10.20987863063024</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>27.7098277190827</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>93.65468763831561</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9919488199109</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25837,10 +25837,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>45.26758536431868</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,16 +25865,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>193.2866666725202</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>249.0690626730811</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -25919,13 +25919,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>154.2171030163534</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>155.7660333716476</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>177.2547436189257</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25947,16 +25947,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>49.34975497418225</v>
       </c>
       <c r="E45" t="n">
-        <v>140.9436899551911</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
         <v>104.3883541553076</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -26001,13 +26001,13 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>79.70875806243225</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26023,10 +26023,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26071,22 +26071,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>105.8600310718083</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>53.04888035959692</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>114.2956491434904</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>114.5367732381036</v>
+        <v>160.6508054802591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>442225.9719336008</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>442225.9719336007</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>442225.9719336008</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>467895.656152068</v>
+        <v>516200.937856329</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>467895.6561520682</v>
+        <v>516200.937856329</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>467895.6561520682</v>
+        <v>819401.8737535684</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>819401.8737535683</v>
+        <v>819401.8737535685</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>819401.8737535685</v>
+        <v>819401.8737535683</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>819401.8737535684</v>
+        <v>819401.8737535685</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>819401.8737535685</v>
+        <v>516200.9378563293</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>467895.6561520682</v>
+        <v>516200.937856329</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127346.7805525807</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>127346.7805525807</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>127346.7805525807</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>144706.9629005847</v>
+        <v>158596.7539996364</v>
       </c>
       <c r="F2" t="n">
-        <v>144706.9629005847</v>
+        <v>158596.7539996365</v>
       </c>
       <c r="G2" t="n">
-        <v>144706.9629005847</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
+        <v>245779.718513394</v>
+      </c>
+      <c r="L2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="L2" t="n">
-        <v>245779.718513394</v>
       </c>
       <c r="M2" t="n">
         <v>245779.7185133939</v>
@@ -26350,10 +26350,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133939</v>
+        <v>158596.7539996365</v>
       </c>
       <c r="P2" t="n">
-        <v>144706.9629005847</v>
+        <v>158596.7539996365</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57636.53971368034</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118753.6257858992</v>
       </c>
       <c r="H3" t="n">
-        <v>135525.3433670362</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>44999.16387966859</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46975.64669165601</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="C4" t="n">
-        <v>46975.64669165601</v>
+        <v>50385.00392753456</v>
       </c>
       <c r="D4" t="n">
-        <v>46975.64669165601</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="E4" t="n">
-        <v>17508.18398170335</v>
+        <v>21951.39047944918</v>
       </c>
       <c r="F4" t="n">
-        <v>17508.18398170335</v>
+        <v>21951.39047944918</v>
       </c>
       <c r="G4" t="n">
-        <v>17508.18398170335</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="H4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="I4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="J4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="K4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="L4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="M4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087038</v>
       </c>
       <c r="N4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="O4" t="n">
-        <v>55591.68022641086</v>
+        <v>21951.39047944918</v>
       </c>
       <c r="P4" t="n">
-        <v>17508.18398170337</v>
+        <v>21951.39047944918</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44084.36248598802</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>44084.36248598802</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>44084.36248598802</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>18691.57436592051</v>
+        <v>22888.48064369416</v>
       </c>
       <c r="F5" t="n">
-        <v>18691.57436592051</v>
+        <v>22888.48064369416</v>
       </c>
       <c r="G5" t="n">
-        <v>18691.57436592051</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="L5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="M5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>22888.48064369416</v>
       </c>
       <c r="P5" t="n">
-        <v>18691.57436592052</v>
+        <v>22888.48064369416</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21349.76833874362</v>
+        <v>-38199.13257121146</v>
       </c>
       <c r="C6" t="n">
-        <v>36286.7713749367</v>
+        <v>42570.29896033632</v>
       </c>
       <c r="D6" t="n">
-        <v>36286.77137493672</v>
+        <v>42570.29896033629</v>
       </c>
       <c r="E6" t="n">
-        <v>-194973.1885100393</v>
+        <v>-189723.510186507</v>
       </c>
       <c r="F6" t="n">
-        <v>108507.2045529608</v>
+        <v>113756.8828764931</v>
       </c>
       <c r="G6" t="n">
-        <v>108507.2045529608</v>
+        <v>24134.04895321484</v>
       </c>
       <c r="H6" t="n">
-        <v>5431.216856537372</v>
+        <v>142887.6747391141</v>
       </c>
       <c r="I6" t="n">
-        <v>140956.5602235736</v>
+        <v>142887.6747391141</v>
       </c>
       <c r="J6" t="n">
-        <v>95957.39634390503</v>
+        <v>79827.73214000784</v>
       </c>
       <c r="K6" t="n">
-        <v>140956.5602235736</v>
+        <v>142887.6747391142</v>
       </c>
       <c r="L6" t="n">
-        <v>140956.5602235736</v>
+        <v>142887.674739114</v>
       </c>
       <c r="M6" t="n">
-        <v>140956.5602235736</v>
+        <v>142887.674739114</v>
       </c>
       <c r="N6" t="n">
-        <v>140956.5602235736</v>
+        <v>142887.6747391141</v>
       </c>
       <c r="O6" t="n">
-        <v>140956.5602235735</v>
+        <v>113756.8828764931</v>
       </c>
       <c r="P6" t="n">
-        <v>108507.2045529608</v>
+        <v>113756.8828764931</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>171.9862250984872</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>171.9862250984874</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="H4" t="n">
-        <v>502.3010476560684</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="P4" t="n">
-        <v>502.3010476560684</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>95.75582955188507</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>171.9862250984872</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>171.9862250984872</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>171.9862250984872</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M3" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>38.41348867244995</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>14.33531686961094</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>171.9862250984872</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>171.9862250984872</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>171.9862250984872</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>171.9862250984872</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>165.0372867106696</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O6" t="n">
-        <v>171.9862250984872</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>14.33531686961094</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>171.9862250984872</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>171.9862250984872</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>171.9862250984872</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>165.0372867106696</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>171.9862250984872</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L11" t="n">
-        <v>3.874924893079765</v>
+        <v>97.74290224075079</v>
       </c>
       <c r="M11" t="n">
-        <v>166.8880188790249</v>
+        <v>36.30093131326404</v>
       </c>
       <c r="N11" t="n">
         <v>41.54873083723953</v>
@@ -35425,7 +35425,7 @@
         <v>25.76332749029987</v>
       </c>
       <c r="P11" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L12" t="n">
-        <v>37.86260226792655</v>
+        <v>104.046488561329</v>
       </c>
       <c r="M12" t="n">
-        <v>92.44679354532639</v>
+        <v>63.73626307629391</v>
       </c>
       <c r="N12" t="n">
         <v>79.97735909033673</v>
@@ -35504,10 +35504,10 @@
         <v>50.71942114786029</v>
       </c>
       <c r="P12" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>169.2120790083312</v>
       </c>
       <c r="L14" t="n">
-        <v>3.874924893079765</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="M14" t="n">
         <v>36.30093131326404</v>
       </c>
       <c r="N14" t="n">
-        <v>41.54873083723953</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O14" t="n">
-        <v>171.9862250984872</v>
+        <v>25.76332749029987</v>
       </c>
       <c r="P14" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.3616962474424</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>130.1205214879308</v>
       </c>
       <c r="L15" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="M15" t="n">
-        <v>85.05992762033287</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>79.97735909033673</v>
       </c>
       <c r="O15" t="n">
-        <v>171.9862250984872</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>171.9862250984872</v>
+        <v>21.17845723362751</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>40.32544951085697</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>171.9862250984872</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>171.9862250984872</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>25.76332749029987</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>171.9862250984872</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>171.9862250984872</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>79.97735909033673</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>171.9862250984872</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>85.05992762033284</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36212,13 +36212,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
         <v>297.223041434342</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36680,7 +36680,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>410.005506727916</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338903</v>
@@ -36844,7 +36844,7 @@
         <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530448</v>
       </c>
       <c r="P29" t="n">
         <v>308.9376163116798</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K32" t="n">
         <v>297.223041434342</v>
@@ -37087,7 +37087,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338903</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
         <v>297.223041434342</v>
@@ -37391,10 +37391,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37640,7 +37640,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>35.73010068478663</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>41.54873083723953</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>63.73626307629391</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932197</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>50.71942114786029</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>116.8206535877408</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.1763433687846</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="L44" t="n">
-        <v>171.9862250984874</v>
+        <v>3.874924893079765</v>
       </c>
       <c r="M44" t="n">
-        <v>36.30093131326404</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N44" t="n">
-        <v>41.54873083723953</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O44" t="n">
-        <v>171.9862250984874</v>
+        <v>25.76332749029987</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>201.6380854285155</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>171.9862250984874</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>37.86260226792655</v>
+        <v>210.0978805782676</v>
       </c>
       <c r="M45" t="n">
-        <v>171.9862250984874</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>79.97735909033673</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>50.71942114786029</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>168.4641293030335</v>
+        <v>21.17845723362751</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>498902.6127354263</v>
+        <v>431889.0009836455</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4321361.842589804</v>
+        <v>3840854.495975444</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10435498.72183875</v>
+        <v>10457196.99249323</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8548339.602247631</v>
+        <v>8566164.688334364</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>90.8316949233748</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>142.0207091502683</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>215.4108546636941</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H5" t="n">
-        <v>202.2946864288972</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>73.71321288221388</v>
+        <v>187.2512275654234</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G8" t="n">
-        <v>70.34400780127524</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>140.0390559390595</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>100.1286004073773</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>25.34359263192371</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>274.32926843396</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>131.1317397069149</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643704</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
         <v>99.90681807664345</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>156.044711807433</v>
+        <v>232.6900396322376</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>101.774606121004</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>358.9409336995601</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958686</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>148.2932254634418</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>95.69503152181971</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>244.2681349500553</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>80.80955923595799</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664363</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
         <v>45.44580843958667</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>118.1755662093913</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>275.6564069938789</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>7.738968556910576</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>12.07524866582038</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>64.18346317878925</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>185.6790526842969</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>263.7394182836353</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>93.08025408582577</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>225.5650375952951</v>
       </c>
       <c r="V25" t="n">
-        <v>79.28604738509118</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>55.03795486996335</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.44354299374023</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
-        <v>225.5650375952951</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.454476553030551</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>366.4584618896158</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>315.9324224046641</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>79.28604738509118</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>225.8273812737891</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>38.64522886830777</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>155.0907019476963</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>51.34162924275417</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>225.8273812737891</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>80.58241584036831</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>307.0186697888091</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>100.5315556063708</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>274.6735496872829</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>134.76204751462</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>4.363940260409595</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I39" t="n">
-        <v>45.44580843958667</v>
+        <v>45.4458084395873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>20.46149937367052</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U40" t="n">
         <v>286.260654658097</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>263.7394182836358</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.7561893143501</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>20.90078060183545</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S42" t="n">
         <v>147.9721212459916</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.0845455781039</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>198.5670282979685</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>107.5759848528688</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>278.7874773414221</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3024922077873</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>92.52344006174989</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>19.12450171074273</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>133.7720277432331</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>191.9379658262512</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8071041233812</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2798525983037</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>93.22043587786131</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>103.9922265400504</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>213.4387130039878</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>577.1531170985884</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C3" t="n">
-        <v>577.1531170985884</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D3" t="n">
-        <v>577.1531170985884</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E3" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>872.3079687193485</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="V3" t="n">
-        <v>820.6018937426884</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="W3" t="n">
-        <v>577.1531170985884</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="X3" t="n">
-        <v>577.1531170985884</v>
+        <v>670.1213740781145</v>
       </c>
       <c r="Y3" t="n">
-        <v>577.1531170985884</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="D5" t="n">
-        <v>223.6192102101089</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="E5" t="n">
-        <v>223.6192102101089</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="F5" t="n">
-        <v>223.6192102101089</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="G5" t="n">
-        <v>223.6192102101089</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>978.2509294445696</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>473.9875657500345</v>
+        <v>166.0995765620064</v>
       </c>
       <c r="C6" t="n">
-        <v>473.9875657500345</v>
+        <v>166.0995765620064</v>
       </c>
       <c r="D6" t="n">
-        <v>325.0531560887832</v>
+        <v>166.0995765620064</v>
       </c>
       <c r="E6" t="n">
-        <v>165.8157010833278</v>
+        <v>166.0995765620064</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="N6" t="n">
-        <v>621.8469951458151</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V6" t="n">
-        <v>889.5993647205212</v>
+        <v>789.1082753380813</v>
       </c>
       <c r="W6" t="n">
-        <v>889.5993647205212</v>
+        <v>542.0752123470284</v>
       </c>
       <c r="X6" t="n">
-        <v>681.7478645149884</v>
+        <v>542.0752123470284</v>
       </c>
       <c r="Y6" t="n">
-        <v>473.9875657500345</v>
+        <v>334.3149135820744</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.7844730889342</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="C8" t="n">
-        <v>333.7844730889342</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="D8" t="n">
-        <v>333.7844730889342</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="E8" t="n">
-        <v>333.7844730889342</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="F8" t="n">
-        <v>90.33569644483418</v>
+        <v>291.098892013627</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800419</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="V8" t="n">
-        <v>333.7844730889342</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="W8" t="n">
-        <v>333.7844730889342</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="X8" t="n">
-        <v>333.7844730889342</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="Y8" t="n">
-        <v>333.7844730889342</v>
+        <v>556.9999364092498</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.6348642800931</v>
+        <v>296.6523924087526</v>
       </c>
       <c r="C9" t="n">
-        <v>45.6348642800931</v>
+        <v>122.1993631276256</v>
       </c>
       <c r="D9" t="n">
-        <v>45.6348642800931</v>
+        <v>122.1993631276256</v>
       </c>
       <c r="E9" t="n">
-        <v>45.6348642800931</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F9" t="n">
-        <v>45.6348642800931</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G9" t="n">
-        <v>45.6348642800931</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>394.933760794076</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>655.5433744062259</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>716.9050068346266</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="W9" t="n">
-        <v>461.2466632505798</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="X9" t="n">
-        <v>253.395163045047</v>
+        <v>672.6280281937745</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.6348642800931</v>
+        <v>464.8677294288206</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1484.841046679629</v>
+        <v>939.9079918125262</v>
       </c>
       <c r="C11" t="n">
-        <v>1207.740775534215</v>
+        <v>570.9454748721146</v>
       </c>
       <c r="D11" t="n">
-        <v>849.4750769274647</v>
+        <v>570.9454748721146</v>
       </c>
       <c r="E11" t="n">
-        <v>463.6868243292204</v>
+        <v>185.1572222738703</v>
       </c>
       <c r="F11" t="n">
         <v>52.70091953961285</v>
@@ -5047,10 +5047,10 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L11" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M11" t="n">
-        <v>970.8360002400555</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N11" t="n">
         <v>1413.39376509937</v>
@@ -5068,25 +5068,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S11" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T11" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U11" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V11" t="n">
-        <v>2635.045976980643</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.045976980643</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X11" t="n">
-        <v>2261.580218719563</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y11" t="n">
-        <v>1871.440886743751</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238405</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E12" t="n">
-        <v>483.497710018385</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F12" t="n">
-        <v>336.96315204527</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J12" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K12" t="n">
-        <v>500.7885757023184</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L12" t="n">
-        <v>638.0181737180123</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M12" t="n">
-        <v>1094.033005337444</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N12" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O12" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q12" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R12" t="n">
         <v>2613.934077382829</v>
@@ -5153,19 +5153,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U12" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V12" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y12" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C13" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D13" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E13" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F13" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G13" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H13" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I13" t="n">
         <v>52.70091953961285</v>
@@ -5223,28 +5223,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R13" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T13" t="n">
-        <v>489.0881582831306</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U13" t="n">
-        <v>331.4672372655215</v>
+        <v>817.5951569259904</v>
       </c>
       <c r="V13" t="n">
-        <v>331.4672372655215</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="W13" t="n">
-        <v>331.4672372655215</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X13" t="n">
-        <v>331.4672372655215</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y13" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1165.717387685019</v>
+        <v>1316.709887450237</v>
       </c>
       <c r="C14" t="n">
-        <v>796.7548707446076</v>
+        <v>947.747370509825</v>
       </c>
       <c r="D14" t="n">
-        <v>438.4891721378571</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="E14" t="n">
-        <v>52.70091953961285</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="F14" t="n">
-        <v>52.70091953961285</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G14" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H14" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I14" t="n">
         <v>52.70091953961285</v>
@@ -5305,25 +5305,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T14" t="n">
-        <v>2532.243344535184</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U14" t="n">
-        <v>2278.551641280335</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V14" t="n">
-        <v>2278.551641280335</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W14" t="n">
-        <v>1925.782986010221</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="X14" t="n">
-        <v>1552.317227749141</v>
+        <v>1316.709887450237</v>
       </c>
       <c r="Y14" t="n">
-        <v>1552.317227749141</v>
+        <v>1316.709887450237</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D15" t="n">
-        <v>642.7351650238405</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E15" t="n">
-        <v>483.497710018385</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F15" t="n">
-        <v>336.96315204527</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G15" t="n">
-        <v>199.521754404492</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929655</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J15" t="n">
-        <v>171.3601713965085</v>
+        <v>171.3601713965083</v>
       </c>
       <c r="K15" t="n">
-        <v>500.7885757023184</v>
+        <v>500.7885757023182</v>
       </c>
       <c r="L15" t="n">
-        <v>638.0181737180123</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M15" t="n">
-        <v>1278.563523185117</v>
+        <v>1184.647451923041</v>
       </c>
       <c r="N15" t="n">
-        <v>1930.737402487826</v>
+        <v>1836.82133122575</v>
       </c>
       <c r="O15" t="n">
-        <v>2090.249715156587</v>
+        <v>1996.333643894511</v>
       </c>
       <c r="P15" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q15" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R15" t="n">
         <v>2613.934077382829</v>
@@ -5390,19 +5390,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U15" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V15" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y15" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>650.1945570251878</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C16" t="n">
-        <v>481.2583740972809</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D16" t="n">
-        <v>481.2583740972809</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E16" t="n">
-        <v>481.2583740972809</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F16" t="n">
-        <v>481.2583740972809</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G16" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H16" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I16" t="n">
         <v>52.70091953961285</v>
@@ -5460,28 +5460,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R16" t="n">
-        <v>1052.635600998958</v>
+        <v>955.9739529971196</v>
       </c>
       <c r="S16" t="n">
-        <v>1052.635600998958</v>
+        <v>955.9739529971196</v>
       </c>
       <c r="T16" t="n">
-        <v>1052.635600998958</v>
+        <v>955.9739529971196</v>
       </c>
       <c r="U16" t="n">
-        <v>1052.635600998958</v>
+        <v>955.9739529971196</v>
       </c>
       <c r="V16" t="n">
-        <v>1052.635600998958</v>
+        <v>955.9739529971196</v>
       </c>
       <c r="W16" t="n">
-        <v>1052.635600998958</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="X16" t="n">
-        <v>1052.635600998958</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="Y16" t="n">
-        <v>831.8430218554275</v>
+        <v>666.5567829601589</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>878.3806881546661</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="C17" t="n">
-        <v>878.3806881546661</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="D17" t="n">
-        <v>520.1149895479157</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E17" t="n">
-        <v>134.3267369496714</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F17" t="n">
-        <v>52.70091953961285</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G17" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H17" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J17" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K17" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L17" t="n">
-        <v>295.8269799488417</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M17" t="n">
-        <v>786.0860970395232</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N17" t="n">
         <v>1413.39376509937</v>
@@ -5548,19 +5548,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U17" t="n">
-        <v>2381.354273725794</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V17" t="n">
-        <v>2381.354273725794</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W17" t="n">
-        <v>2028.585618455679</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X17" t="n">
-        <v>1655.1198601946</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="Y17" t="n">
-        <v>1264.980528218788</v>
+        <v>1951.214434366958</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D18" t="n">
-        <v>642.7351650238405</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E18" t="n">
-        <v>483.497710018385</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F18" t="n">
-        <v>336.96315204527</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G18" t="n">
-        <v>199.521754404492</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I18" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J18" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K18" t="n">
-        <v>316.2580578546455</v>
+        <v>382.1293238454225</v>
       </c>
       <c r="L18" t="n">
-        <v>453.4876558703395</v>
+        <v>886.4908637115411</v>
       </c>
       <c r="M18" t="n">
-        <v>1094.033005337444</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.206884640153</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O18" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P18" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q18" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R18" t="n">
         <v>2613.934077382829</v>
@@ -5627,19 +5627,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U18" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V18" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y18" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>371.7537418798555</v>
+        <v>763.218430961997</v>
       </c>
       <c r="C19" t="n">
-        <v>202.8175589519486</v>
+        <v>643.849172164632</v>
       </c>
       <c r="D19" t="n">
-        <v>52.70091953961285</v>
+        <v>493.7325327522963</v>
       </c>
       <c r="E19" t="n">
-        <v>52.70091953961285</v>
+        <v>345.8194391699032</v>
       </c>
       <c r="F19" t="n">
-        <v>52.70091953961285</v>
+        <v>345.8194391699032</v>
       </c>
       <c r="G19" t="n">
-        <v>52.70091953961285</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="H19" t="n">
-        <v>52.70091953961285</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="I19" t="n">
         <v>52.70091953961285</v>
@@ -5712,13 +5712,13 @@
         <v>1052.635600998958</v>
       </c>
       <c r="W19" t="n">
-        <v>774.1947858536254</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X19" t="n">
-        <v>774.1947858536254</v>
+        <v>763.218430961997</v>
       </c>
       <c r="Y19" t="n">
-        <v>553.4022067100952</v>
+        <v>763.218430961997</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1326.507831876648</v>
+        <v>1620.200042514521</v>
       </c>
       <c r="C20" t="n">
-        <v>1326.507831876648</v>
+        <v>1251.237525574109</v>
       </c>
       <c r="D20" t="n">
-        <v>1326.507831876648</v>
+        <v>892.971826967359</v>
       </c>
       <c r="E20" t="n">
-        <v>1318.690691920173</v>
+        <v>892.971826967359</v>
       </c>
       <c r="F20" t="n">
-        <v>907.7047871305651</v>
+        <v>481.9859221777514</v>
       </c>
       <c r="G20" t="n">
-        <v>490.6170053669925</v>
+        <v>64.8981404141789</v>
       </c>
       <c r="H20" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I20" t="n">
         <v>52.70091953961285</v>
@@ -5788,16 +5788,16 @@
         <v>2010.339374490333</v>
       </c>
       <c r="V20" t="n">
-        <v>1679.276487146762</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W20" t="n">
-        <v>1326.507831876648</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="X20" t="n">
-        <v>1326.507831876648</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="Y20" t="n">
-        <v>1326.507831876648</v>
+        <v>1620.200042514521</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D21" t="n">
         <v>642.7351650238404</v>
@@ -5831,22 +5831,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J21" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K21" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4113519543016</v>
+        <v>591.7266525668458</v>
       </c>
       <c r="M21" t="n">
-        <v>1483.956701421406</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N21" t="n">
-        <v>2136.130580724115</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O21" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P21" t="n">
         <v>2404.332520920175</v>
@@ -5870,10 +5870,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W21" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y21" t="n">
         <v>1134.337940986287</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>221.3077645442295</v>
+        <v>590.5108280454762</v>
       </c>
       <c r="C22" t="n">
-        <v>221.3077645442295</v>
+        <v>590.5108280454762</v>
       </c>
       <c r="D22" t="n">
-        <v>221.3077645442295</v>
+        <v>440.3941886331404</v>
       </c>
       <c r="E22" t="n">
-        <v>221.3077645442295</v>
+        <v>440.3941886331404</v>
       </c>
       <c r="F22" t="n">
-        <v>221.3077645442295</v>
+        <v>440.3941886331404</v>
       </c>
       <c r="G22" t="n">
-        <v>52.70091953961285</v>
+        <v>271.7873436285238</v>
       </c>
       <c r="H22" t="n">
-        <v>52.70091953961285</v>
+        <v>117.5327005282889</v>
       </c>
       <c r="I22" t="n">
         <v>52.70091953961285</v>
@@ -5943,19 +5943,19 @@
         <v>845.195316251363</v>
       </c>
       <c r="U22" t="n">
-        <v>657.6407175803561</v>
+        <v>845.195316251363</v>
       </c>
       <c r="V22" t="n">
-        <v>402.9562293744692</v>
+        <v>590.5108280454762</v>
       </c>
       <c r="W22" t="n">
-        <v>402.9562293744692</v>
+        <v>590.5108280454762</v>
       </c>
       <c r="X22" t="n">
-        <v>402.9562293744692</v>
+        <v>590.5108280454762</v>
       </c>
       <c r="Y22" t="n">
-        <v>402.9562293744692</v>
+        <v>590.5108280454762</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1484.841046679629</v>
+        <v>1582.805169448592</v>
       </c>
       <c r="C23" t="n">
-        <v>1115.878529739218</v>
+        <v>1213.84265250818</v>
       </c>
       <c r="D23" t="n">
-        <v>1115.878529739218</v>
+        <v>855.5769539014296</v>
       </c>
       <c r="E23" t="n">
-        <v>730.0902771409733</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F23" t="n">
-        <v>319.1043723513657</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G23" t="n">
         <v>52.70091953961285</v>
@@ -6019,22 +6019,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2635.045976980643</v>
+        <v>2541.025518308091</v>
       </c>
       <c r="U23" t="n">
-        <v>2635.045976980643</v>
+        <v>2287.333815053242</v>
       </c>
       <c r="V23" t="n">
-        <v>2635.045976980643</v>
+        <v>1956.270927709672</v>
       </c>
       <c r="W23" t="n">
-        <v>2635.045976980643</v>
+        <v>1956.270927709672</v>
       </c>
       <c r="X23" t="n">
-        <v>2261.580218719563</v>
+        <v>1582.805169448592</v>
       </c>
       <c r="Y23" t="n">
-        <v>1871.440886743751</v>
+        <v>1582.805169448592</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D24" t="n">
         <v>642.7351650238404</v>
@@ -6068,25 +6068,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J24" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K24" t="n">
-        <v>238.9679910598655</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L24" t="n">
-        <v>376.1975890755595</v>
+        <v>346.1860297752922</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.742938542664</v>
+        <v>986.7313792423969</v>
       </c>
       <c r="N24" t="n">
-        <v>1668.916817845373</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.352826598096</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P24" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q24" t="n">
         <v>2635.045976980643</v>
@@ -6107,10 +6107,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W24" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X24" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y24" t="n">
         <v>1134.337940986287</v>
@@ -6180,19 +6180,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U25" t="n">
-        <v>1052.635600998958</v>
+        <v>824.7921286804777</v>
       </c>
       <c r="V25" t="n">
-        <v>972.5486844483605</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W25" t="n">
-        <v>683.1315144114</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X25" t="n">
-        <v>455.1419635133826</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y25" t="n">
-        <v>234.3493843698525</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1266.562858691037</v>
+        <v>936.3684999008367</v>
       </c>
       <c r="C26" t="n">
-        <v>1266.562858691037</v>
+        <v>936.3684999008367</v>
       </c>
       <c r="D26" t="n">
-        <v>1266.562858691037</v>
+        <v>936.3684999008367</v>
       </c>
       <c r="E26" t="n">
-        <v>880.774606092793</v>
+        <v>936.3684999008367</v>
       </c>
       <c r="F26" t="n">
-        <v>469.7887013031854</v>
+        <v>525.3825951112292</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961285</v>
+        <v>108.2948133476567</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J26" t="n">
         <v>241.3408185533492</v>
@@ -6241,7 +6241,7 @@
         <v>1413.39376509937</v>
       </c>
       <c r="O26" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P26" t="n">
         <v>2389.870016205742</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2631.567650724339</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T26" t="n">
-        <v>2416.767788992051</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U26" t="n">
-        <v>2416.767788992051</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V26" t="n">
-        <v>2416.767788992051</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W26" t="n">
-        <v>2416.767788992051</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X26" t="n">
-        <v>2043.302030730971</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y26" t="n">
-        <v>1653.162698755159</v>
+        <v>936.3684999008367</v>
       </c>
     </row>
     <row r="27">
@@ -6281,55 +6281,55 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C27" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D27" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E27" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F27" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K27" t="n">
-        <v>500.7885757023182</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L27" t="n">
-        <v>1005.150115568437</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M27" t="n">
-        <v>1184.647451923041</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N27" t="n">
-        <v>1430.928743686615</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O27" t="n">
-        <v>1980.364752439338</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920174</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q27" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6338,19 +6338,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U27" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V27" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W27" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X27" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y27" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6414,22 +6414,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>1052.635600998958</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U28" t="n">
-        <v>824.7921286804777</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V28" t="n">
-        <v>570.1076404745909</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="W28" t="n">
-        <v>280.6904704376302</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="X28" t="n">
-        <v>52.70091953961285</v>
+        <v>55.18018878509827</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1561.075102391146</v>
+        <v>1165.717387685019</v>
       </c>
       <c r="C29" t="n">
-        <v>1192.112585450734</v>
+        <v>796.7548707446076</v>
       </c>
       <c r="D29" t="n">
-        <v>833.8468868439838</v>
+        <v>438.4891721378571</v>
       </c>
       <c r="E29" t="n">
-        <v>833.8468868439838</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F29" t="n">
-        <v>422.8609820543763</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G29" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H29" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J29" t="n">
         <v>241.3408185533492</v>
@@ -6469,16 +6469,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L29" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M29" t="n">
-        <v>1219.059552207387</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N29" t="n">
-        <v>1413.39376509937</v>
+        <v>1610.188611289942</v>
       </c>
       <c r="O29" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P29" t="n">
         <v>2389.870016205742</v>
@@ -6499,16 +6499,16 @@
         <v>2635.045976980643</v>
       </c>
       <c r="V29" t="n">
-        <v>2303.983089637072</v>
+        <v>2315.922317986033</v>
       </c>
       <c r="W29" t="n">
-        <v>1951.214434366958</v>
+        <v>2315.922317986033</v>
       </c>
       <c r="X29" t="n">
-        <v>1951.214434366958</v>
+        <v>1942.456559724953</v>
       </c>
       <c r="Y29" t="n">
-        <v>1561.075102391146</v>
+        <v>1552.317227749141</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C30" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D30" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E30" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F30" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I30" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J30" t="n">
-        <v>52.70091953961264</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K30" t="n">
-        <v>382.1293238454225</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L30" t="n">
-        <v>886.4908637115411</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M30" t="n">
-        <v>1065.988200066146</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N30" t="n">
-        <v>1430.928743686615</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O30" t="n">
-        <v>1980.364752439338</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P30" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q30" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R30" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S30" t="n">
         <v>2464.467288245464</v>
@@ -6575,19 +6575,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U30" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V30" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W30" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X30" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y30" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J31" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K31" t="n">
         <v>153.7488491352227</v>
@@ -6654,19 +6654,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U31" t="n">
-        <v>1052.635600998958</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V31" t="n">
-        <v>972.5486844483605</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W31" t="n">
-        <v>683.1315144114</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X31" t="n">
-        <v>455.1419635133826</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y31" t="n">
-        <v>234.3493843698525</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1739.462444143235</v>
+        <v>1206.733776870418</v>
       </c>
       <c r="C32" t="n">
-        <v>1370.499927202823</v>
+        <v>1206.733776870418</v>
       </c>
       <c r="D32" t="n">
-        <v>1012.234228596072</v>
+        <v>1167.698192154955</v>
       </c>
       <c r="E32" t="n">
-        <v>626.4459759978281</v>
+        <v>781.9099395567109</v>
       </c>
       <c r="F32" t="n">
-        <v>469.7887013031854</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="G32" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J32" t="n">
         <v>241.3408185533492</v>
@@ -6706,16 +6706,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M32" t="n">
-        <v>1219.059552207387</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N32" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O32" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P32" t="n">
         <v>2389.870016205742</v>
@@ -6730,22 +6730,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V32" t="n">
-        <v>2478.830939477471</v>
+        <v>1932.968190401612</v>
       </c>
       <c r="W32" t="n">
-        <v>2126.062284207356</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="X32" t="n">
-        <v>2126.062284207356</v>
+        <v>1206.733776870418</v>
       </c>
       <c r="Y32" t="n">
-        <v>2126.062284207356</v>
+        <v>1206.733776870418</v>
       </c>
     </row>
     <row r="33">
@@ -6770,31 +6770,31 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G33" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J33" t="n">
         <v>171.3601713965085</v>
       </c>
       <c r="K33" t="n">
-        <v>454.4970545511518</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L33" t="n">
-        <v>591.7266525668458</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M33" t="n">
-        <v>1232.27200203395</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N33" t="n">
-        <v>1430.928743686615</v>
+        <v>1469.689389375326</v>
       </c>
       <c r="O33" t="n">
-        <v>1980.364752439338</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P33" t="n">
         <v>2404.332520920175</v>
@@ -6803,7 +6803,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R33" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S33" t="n">
         <v>2464.467288245464</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2401.537280592065</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C34" t="n">
-        <v>2232.601097664158</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D34" t="n">
-        <v>2082.484458251823</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E34" t="n">
-        <v>2082.484458251823</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F34" t="n">
-        <v>2082.484458251823</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G34" t="n">
-        <v>1913.877613247206</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H34" t="n">
-        <v>1759.622970146971</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K34" t="n">
-        <v>1736.159225116907</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L34" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M34" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N34" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O34" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P34" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R34" t="n">
-        <v>2583.185745422305</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S34" t="n">
-        <v>2583.185745422305</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T34" t="n">
-        <v>2583.185745422305</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U34" t="n">
-        <v>2583.185745422305</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V34" t="n">
-        <v>2583.185745422305</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W34" t="n">
-        <v>2583.185745422305</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X34" t="n">
-        <v>2583.185745422305</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y34" t="n">
-        <v>2583.185745422305</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1132.072391409515</v>
+        <v>1289.137155170951</v>
       </c>
       <c r="C35" t="n">
-        <v>1132.072391409515</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="D35" t="n">
-        <v>773.8066928027649</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E35" t="n">
-        <v>773.8066928027649</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F35" t="n">
-        <v>362.8207880131574</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G35" t="n">
         <v>52.70091953961286</v>
@@ -6943,10 +6943,10 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L35" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M35" t="n">
-        <v>1219.059552207388</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N35" t="n">
         <v>1413.39376509937</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U35" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V35" t="n">
-        <v>2635.045976980643</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W35" t="n">
-        <v>2282.277321710529</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="X35" t="n">
-        <v>1908.811563449449</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="Y35" t="n">
-        <v>1518.672231473637</v>
+        <v>1289.137155170951</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L36" t="n">
-        <v>1005.150115568437</v>
+        <v>907.0047935203841</v>
       </c>
       <c r="M36" t="n">
-        <v>1184.647451923042</v>
+        <v>1547.550142987489</v>
       </c>
       <c r="N36" t="n">
-        <v>1430.928743686616</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O36" t="n">
-        <v>1980.364752439339</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P36" t="n">
         <v>2404.332520920175</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.3026479628311</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C37" t="n">
-        <v>447.3664650349242</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D37" t="n">
-        <v>447.3664650349242</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E37" t="n">
-        <v>447.3664650349242</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F37" t="n">
-        <v>447.3664650349242</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G37" t="n">
-        <v>278.7596200303076</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H37" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I37" t="n">
         <v>52.70091953961286</v>
@@ -7122,25 +7122,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S37" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T37" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U37" t="n">
-        <v>1052.635600998958</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="V37" t="n">
-        <v>797.9511127930708</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W37" t="n">
-        <v>797.9511127930708</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X37" t="n">
-        <v>797.9511127930708</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y37" t="n">
-        <v>797.9511127930708</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1270.970879156097</v>
+        <v>1285.410358284908</v>
       </c>
       <c r="C38" t="n">
-        <v>1270.970879156097</v>
+        <v>916.4478413444967</v>
       </c>
       <c r="D38" t="n">
-        <v>1270.970879156097</v>
+        <v>558.1821427377463</v>
       </c>
       <c r="E38" t="n">
-        <v>885.1826265578532</v>
+        <v>172.393890139502</v>
       </c>
       <c r="F38" t="n">
-        <v>474.1967217682456</v>
+        <v>172.393890139502</v>
       </c>
       <c r="G38" t="n">
-        <v>57.10894000467306</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H38" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I38" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J38" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K38" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L38" t="n">
-        <v>784.1365874146478</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M38" t="n">
-        <v>1415.85439839796</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N38" t="n">
-        <v>1610.188611289942</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O38" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P38" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q38" t="n">
         <v>2635.045976980643</v>
@@ -7204,22 +7204,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U38" t="n">
-        <v>2010.339374490333</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V38" t="n">
-        <v>2010.339374490333</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W38" t="n">
-        <v>1657.570719220219</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X38" t="n">
-        <v>1657.570719220219</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="Y38" t="n">
-        <v>1657.570719220219</v>
+        <v>1421.533638602706</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662192</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850922</v>
       </c>
       <c r="D39" t="n">
-        <v>642.7351650238404</v>
+        <v>642.735165023841</v>
       </c>
       <c r="E39" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183855</v>
       </c>
       <c r="F39" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452705</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044924</v>
       </c>
       <c r="H39" t="n">
-        <v>98.60577654929637</v>
+        <v>98.605776549297</v>
       </c>
       <c r="I39" t="n">
         <v>52.70091953961286</v>
@@ -7259,16 +7259,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L39" t="n">
-        <v>638.0181737180123</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M39" t="n">
-        <v>1278.563523185117</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N39" t="n">
-        <v>1930.737402487826</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O39" t="n">
-        <v>2090.249715156587</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P39" t="n">
         <v>2404.332520920175</v>
@@ -7280,7 +7280,7 @@
         <v>2613.93407738283</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.467288245464</v>
+        <v>2464.467288245465</v>
       </c>
       <c r="T39" t="n">
         <v>2267.477992405552</v>
@@ -7289,7 +7289,7 @@
         <v>2039.339204916718</v>
       </c>
       <c r="V39" t="n">
-        <v>1804.187096684975</v>
+        <v>1804.187096684976</v>
       </c>
       <c r="W39" t="n">
         <v>1549.949739956774</v>
@@ -7359,19 +7359,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S40" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T40" t="n">
-        <v>824.5271350658372</v>
+        <v>885.9547542047806</v>
       </c>
       <c r="U40" t="n">
-        <v>535.3749586435171</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V40" t="n">
-        <v>280.6904704376302</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W40" t="n">
-        <v>280.6904704376302</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X40" t="n">
         <v>52.70091953961286</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1484.84104667963</v>
+        <v>1165.717387685019</v>
       </c>
       <c r="C41" t="n">
-        <v>1115.878529739218</v>
+        <v>796.7548707446076</v>
       </c>
       <c r="D41" t="n">
-        <v>1115.878529739218</v>
+        <v>438.4891721378571</v>
       </c>
       <c r="E41" t="n">
-        <v>730.0902771409737</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F41" t="n">
-        <v>319.1043723513662</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G41" t="n">
         <v>52.70091953961286</v>
@@ -7414,22 +7414,22 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K41" t="n">
-        <v>644.8079315733946</v>
+        <v>507.3197691032044</v>
       </c>
       <c r="L41" t="n">
-        <v>784.1365874146478</v>
+        <v>1060.133027349404</v>
       </c>
       <c r="M41" t="n">
-        <v>970.8360002400555</v>
+        <v>1691.850838332715</v>
       </c>
       <c r="N41" t="n">
-        <v>1413.39376509937</v>
+        <v>2319.158506392562</v>
       </c>
       <c r="O41" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P41" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q41" t="n">
         <v>2635.045976980643</v>
@@ -7441,22 +7441,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T41" t="n">
-        <v>2635.045976980643</v>
+        <v>2476.706391814633</v>
       </c>
       <c r="U41" t="n">
-        <v>2635.045976980643</v>
+        <v>2223.014688559784</v>
       </c>
       <c r="V41" t="n">
-        <v>2635.045976980643</v>
+        <v>1891.951801216213</v>
       </c>
       <c r="W41" t="n">
-        <v>2635.045976980643</v>
+        <v>1539.183145946099</v>
       </c>
       <c r="X41" t="n">
-        <v>2261.580218719563</v>
+        <v>1165.717387685019</v>
       </c>
       <c r="Y41" t="n">
-        <v>1871.440886743751</v>
+        <v>1165.717387685019</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J42" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K42" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L42" t="n">
-        <v>1005.150115568437</v>
+        <v>257.5383372186639</v>
       </c>
       <c r="M42" t="n">
-        <v>1184.647451923042</v>
+        <v>898.0836866857685</v>
       </c>
       <c r="N42" t="n">
-        <v>1430.928743686616</v>
+        <v>1550.257565988478</v>
       </c>
       <c r="O42" t="n">
-        <v>1980.364752439339</v>
+        <v>2099.693574741201</v>
       </c>
       <c r="P42" t="n">
-        <v>2404.332520920175</v>
+        <v>2523.661343222037</v>
       </c>
       <c r="Q42" t="n">
         <v>2635.045976980643</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>650.1945570251878</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C43" t="n">
-        <v>481.2583740972809</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D43" t="n">
-        <v>481.2583740972809</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E43" t="n">
-        <v>481.2583740972809</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F43" t="n">
-        <v>481.2583740972809</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G43" t="n">
-        <v>312.6515290926643</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H43" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I43" t="n">
         <v>52.70091953961286</v>
@@ -7599,22 +7599,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T43" t="n">
-        <v>1052.635600998958</v>
+        <v>852.0628451424238</v>
       </c>
       <c r="U43" t="n">
-        <v>1052.635600998958</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="V43" t="n">
-        <v>1052.635600998958</v>
+        <v>562.9106687201036</v>
       </c>
       <c r="W43" t="n">
-        <v>1052.635600998958</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X43" t="n">
-        <v>1052.635600998958</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y43" t="n">
-        <v>831.8430218554275</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1576.703292474627</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="C44" t="n">
-        <v>1207.740775534215</v>
+        <v>957.5453149362368</v>
       </c>
       <c r="D44" t="n">
-        <v>849.4750769274647</v>
+        <v>599.2796163294863</v>
       </c>
       <c r="E44" t="n">
-        <v>463.6868243292204</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="F44" t="n">
-        <v>52.70091953961286</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="G44" t="n">
-        <v>52.70091953961286</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H44" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I44" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
-        <v>193.9926295475604</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K44" t="n">
-        <v>456.4907949980433</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L44" t="n">
-        <v>819.0447427728841</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.125303783477</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N44" t="n">
-        <v>1700.859731512776</v>
+        <v>1578.654815536984</v>
       </c>
       <c r="O44" t="n">
-        <v>2109.363122473163</v>
+        <v>2125.816020304062</v>
       </c>
       <c r="P44" t="n">
-        <v>2423.510314738926</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q44" t="n">
-        <v>2611.24902655301</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R44" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U44" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V44" t="n">
-        <v>2635.045976980643</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W44" t="n">
-        <v>2635.045976980643</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X44" t="n">
-        <v>2353.44246451456</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y44" t="n">
-        <v>1963.303132538749</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3052542689253</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8522249877983</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D45" t="n">
-        <v>607.917815326547</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6803603210915</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1458023479764</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4766182997064</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H45" t="n">
-        <v>72.01859803531259</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I45" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>118.0354471182384</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K45" t="n">
-        <v>465.8580081721648</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L45" t="n">
-        <v>767.4195713745219</v>
+        <v>736.1097258592545</v>
       </c>
       <c r="M45" t="n">
-        <v>1138.684560063911</v>
+        <v>1376.655075326359</v>
       </c>
       <c r="N45" t="n">
-        <v>1534.184473186204</v>
+        <v>2028.828954629068</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.769831314634</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P45" t="n">
-        <v>2442.262094296974</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q45" t="n">
-        <v>2561.609832686965</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2561.609832686965</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.486572340265</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.609839182435</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.521855219424</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.369746987682</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.13239025948</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.280890053947</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.520591288993</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1033.720939542195</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C46" t="n">
-        <v>864.784756614288</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D46" t="n">
-        <v>714.6681172019522</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E46" t="n">
-        <v>566.7550236195591</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F46" t="n">
-        <v>419.8650761216487</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G46" t="n">
-        <v>251.905629052655</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7435726103709</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I46" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J46" t="n">
-        <v>80.04222654763831</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K46" t="n">
-        <v>254.8092295930466</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L46" t="n">
-        <v>533.9772579209388</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M46" t="n">
-        <v>838.7099246413406</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N46" t="n">
-        <v>1141.631346079985</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O46" t="n">
-        <v>1405.412012516899</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P46" t="n">
-        <v>1607.601259943067</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q46" t="n">
-        <v>1664.151534413982</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R46" t="n">
-        <v>1664.151534413982</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S46" t="n">
-        <v>1664.151534413982</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T46" t="n">
-        <v>1664.151534413982</v>
+        <v>489.0881582831306</v>
       </c>
       <c r="U46" t="n">
-        <v>1664.151534413982</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.151534413982</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="W46" t="n">
-        <v>1664.151534413982</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="X46" t="n">
-        <v>1436.161983515964</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y46" t="n">
-        <v>1215.369404372434</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>234.0901525809383</v>
       </c>
       <c r="O6" t="n">
-        <v>233.6791982203443</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>180.4489082265198</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>279.310601277603</v>
+        <v>48.10560617263482</v>
       </c>
       <c r="N12" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>458.0981188384286</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>207.4678568043326</v>
+        <v>302.3325752508733</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M17" t="n">
-        <v>306.625963904317</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,25 +9242,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K18" t="n">
-        <v>78.07077454018179</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>96.12069185784497</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>207.4678568043326</v>
+        <v>73.09871788457488</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>89.54312379457414</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>78.07077454018153</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>250.7308605730627</v>
+        <v>250.7308605730631</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>48.10560617263502</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10117,16 +10117,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>182.017508342976</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>167.9634363311153</v>
+        <v>48.1056061726357</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10354,13 +10354,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>250.7308605730631</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10430,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>217.7061247386731</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>354.7101519143957</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10591,13 +10591,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>250.7308605730632</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>250.7308605730631</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10670,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>271.703656366032</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>48.1056061726357</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>182.017508342976</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N39" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>207.4678568043331</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11062,28 +11062,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>185.2684807830938</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>250.7308605730631</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>48.1056061726357</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>89.54312379457386</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>154.8683541940949</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>159.5965882491772</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>99.08237590024456</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>18.95691945092472</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348.9301262990307</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,22 +22591,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,25 +22625,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>80.85147618046302</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>90.77987799915692</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>191.4651910780173</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H5" t="n">
-        <v>137.1801156868699</v>
+        <v>94.7608136808341</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
-        <v>159.0873742672114</v>
+        <v>45.54935958400188</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>149.2371023278295</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G8" t="n">
-        <v>344.9587297138598</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>111.2991956798727</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>57.51648004802365</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>86.89185160457275</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296161</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,16 +23260,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>90.9436233370476</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7443060347965</v>
       </c>
       <c r="G11" t="n">
         <v>412.9169039459368</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23433,10 +23433,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
         <v>17.69584188176898</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>130.215942850664</v>
+        <v>53.57061502585941</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>110.877256993962</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>10.79016697890893</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.62755109112859</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
         <v>17.69584188176898</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>33.4781501459716</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001186</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>121.0047568209522</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>326.0664865057535</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>49.07125488923651</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>17.69584188176898</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>10.86659134271207</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>374.1914015153512</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>302.9656354093952</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.266557879417</v>
+        <v>59.08309470062773</v>
       </c>
       <c r="J22" t="n">
         <v>17.69584188176898</v>
@@ -24183,7 +24183,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>100.5816019738001</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>149.1774856623015</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>315.0408840752156</v>
@@ -24259,13 +24259,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>119.5716090291402</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24420,10 +24420,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>60.69561706280186</v>
       </c>
       <c r="V25" t="n">
-        <v>172.8515959387368</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>315.0408840752156</v>
+        <v>260.0029292052522</v>
       </c>
       <c r="I26" t="n">
         <v>118.4960408938903</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2093441343999</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>60.69561706280186</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>216.1301767990642</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>46.45844205632102</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
         <v>315.0408840752156</v>
@@ -24739,13 +24739,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>11.81983606547084</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24894,19 +24894,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>172.8515959387368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>60.69561706280189</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>316.0378127523752</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>251.7853437940152</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>118.4960408938903</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J34" t="n">
         <v>17.69584188176898</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.83155242503715</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S34" t="n">
         <v>205.3658819001186</v>
@@ -25131,16 +25131,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>60.69561706280189</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>284.6904759306393</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>105.8982341571277</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
         <v>315.0408840752156</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
-        <v>52.18054106286176</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J37" t="n">
         <v>17.69584188176898</v>
@@ -25362,19 +25362,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S37" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>11.5871049708141</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>247.9717941488606</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>310.676943814806</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25599,10 +25599,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>202.9114053470882</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>149.177485662301</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
         <v>315.0408840752156</v>
@@ -25681,22 +25681,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
-        <v>212.651863114966</v>
+        <v>55.89567380061587</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
-        <v>18.62755109112862</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J43" t="n">
         <v>17.69584188176898</v>
@@ -25839,16 +25839,16 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>223.3729047207587</v>
+        <v>24.80587642279022</v>
       </c>
       <c r="U43" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>274.354385219393</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.4880739292253</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>300.4078786665683</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>63.41107167461783</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>122.0934231223255</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.3971597168112</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0404798209637</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>90.94362333704692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>53.79326416201802</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>100.3549099614712</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>194.1963253168159</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.6344114530736</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2256951695733</v>
+        <v>72.82194165410922</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490531.2536378615</v>
+        <v>490531.2536378618</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490531.2536378618</v>
+        <v>493620.5445765711</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490531.2536378616</v>
+        <v>509635.5853000613</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821688.1793477288</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>826551.4445986439</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516325</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.127997248</v>
       </c>
       <c r="E2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="F2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="G2" t="n">
         <v>252134.9940623531</v>
@@ -26340,13 +26340,13 @@
         <v>252134.9940623532</v>
       </c>
       <c r="K2" t="n">
+        <v>252134.9940623533</v>
+      </c>
+      <c r="L2" t="n">
         <v>252134.9940623532</v>
       </c>
-      <c r="L2" t="n">
-        <v>252134.9940623531</v>
-      </c>
       <c r="M2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="N2" t="n">
         <v>252134.9940623532</v>
@@ -26355,7 +26355,7 @@
         <v>252134.9940623531</v>
       </c>
       <c r="P2" t="n">
-        <v>262911.8505314358</v>
+        <v>252134.9940623532</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753535</v>
       </c>
       <c r="E3" t="n">
-        <v>601530.6045241205</v>
+        <v>576404.8681646987</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847362</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664029</v>
+        <v>98565.03158297989</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>236559.9980917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="C4" t="n">
-        <v>50385.00392753457</v>
+        <v>50404.27455704983</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753457</v>
+        <v>50480.80391628887</v>
       </c>
       <c r="E4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="F4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="G4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="H4" t="n">
         <v>36133.96051511372</v>
@@ -26444,13 +26444,13 @@
         <v>36133.96051511372</v>
       </c>
       <c r="K4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="L4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="M4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="N4" t="n">
         <v>36133.96051511373</v>
@@ -26459,7 +26459,7 @@
         <v>36133.96051511373</v>
       </c>
       <c r="P4" t="n">
-        <v>7416.310118926249</v>
+        <v>36133.96051511372</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>52990.47783747558</v>
@@ -26493,13 +26493,13 @@
         <v>52990.47783747558</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="K5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="M5" t="n">
         <v>52990.47783747559</v>
@@ -26511,7 +26511,7 @@
         <v>52990.47783747559</v>
       </c>
       <c r="P5" t="n">
-        <v>60738.66581059821</v>
+        <v>52990.47783747559</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38199.13257121148</v>
+        <v>-50417.14319125186</v>
       </c>
       <c r="C6" t="n">
-        <v>42570.29896033626</v>
+        <v>26588.92740361421</v>
       </c>
       <c r="D6" t="n">
-        <v>42570.29896033626</v>
+        <v>12499.89299923326</v>
       </c>
       <c r="E6" t="n">
-        <v>-438520.0488143566</v>
+        <v>-419088.8864625799</v>
       </c>
       <c r="F6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="G6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="H6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="I6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="J6" t="n">
-        <v>99950.61311065768</v>
+        <v>94256.03910301253</v>
       </c>
       <c r="K6" t="n">
-        <v>163010.5557097639</v>
+        <v>156402.7258996617</v>
       </c>
       <c r="L6" t="n">
-        <v>163010.5557097638</v>
+        <v>152588.4185832714</v>
       </c>
       <c r="M6" t="n">
-        <v>58906.28114336092</v>
+        <v>58750.95011913881</v>
       </c>
       <c r="N6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="O6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="P6" t="n">
-        <v>-41803.12348978865</v>
+        <v>157315.9817021188</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26779,7 +26779,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="P3" t="n">
-        <v>948.897566995066</v>
+        <v>593.4761003380651</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
         <v>658.7614942451606</v>
@@ -26813,13 +26813,13 @@
         <v>658.7614942451606</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="M4" t="n">
         <v>658.7614942451607</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380651</v>
+        <v>570.4627176512757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>355.4214666570009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.519460293494</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675017</v>
+        <v>395.519460293494</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.519460293494</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32581,7 +32581,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U21" t="n">
         <v>0.08398246702897151</v>
@@ -32818,7 +32818,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T24" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U24" t="n">
         <v>0.08398246702897151</v>
@@ -33529,7 +33529,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T33" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U33" t="n">
         <v>0.08398246702897151</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.81466358590981</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
-        <v>39.06692344919885</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I44" t="n">
-        <v>147.0648178957881</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J44" t="n">
-        <v>323.7648035246131</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K44" t="n">
-        <v>485.2395131161754</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L44" t="n">
-        <v>601.9825238334629</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M44" t="n">
-        <v>669.8215473793864</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>680.6599602928527</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O44" t="n">
-        <v>642.727899260462</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P44" t="n">
-        <v>548.5533919833135</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>411.9407523129183</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
-        <v>239.6228614784073</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>86.92664646391988</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T44" t="n">
-        <v>16.6986898473202</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3051730868727848</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.041024955423349</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H45" t="n">
-        <v>19.71200417474656</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I45" t="n">
-        <v>70.27213114067234</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J45" t="n">
-        <v>192.8320989683087</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
-        <v>329.5807709816731</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L45" t="n">
-        <v>443.1620193782146</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M45" t="n">
-        <v>517.1491740123109</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N45" t="n">
-        <v>530.8365738230228</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O45" t="n">
-        <v>485.6117577054844</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P45" t="n">
-        <v>389.746247847464</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.5350451870227</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R45" t="n">
-        <v>126.7225845130392</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S45" t="n">
-        <v>37.91114336060473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>8.226762868570427</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1342779575936415</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.711126760155037</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>15.21347246756025</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I46" t="n">
-        <v>51.45824838720785</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>120.9766619429611</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K46" t="n">
-        <v>198.801818134376</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L46" t="n">
-        <v>254.3978821415952</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M46" t="n">
-        <v>268.2268975032118</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>261.8490613971796</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
-        <v>241.8599896990048</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P46" t="n">
-        <v>206.9530037918418</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.2835326162549</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R46" t="n">
-        <v>76.93848141569828</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S46" t="n">
-        <v>29.8202727201564</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>7.311177975207882</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09333418691754757</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>104.8036895137028</v>
       </c>
       <c r="O6" t="n">
-        <v>91.0829537758999</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>61.9814468973745</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>76.41420694903813</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,13 +35415,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M11" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>447.0280453124388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
         <v>552.6880856233105</v>
@@ -35494,19 +35494,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>460.6210420398301</v>
+        <v>229.4160469348619</v>
       </c>
       <c r="N12" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
         <v>233.0438950105733</v>
@@ -35731,10 +35731,10 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
         <v>658.7614942451606</v>
@@ -35743,7 +35743,7 @@
         <v>161.1235481502633</v>
       </c>
       <c r="P15" t="n">
-        <v>317.2553593571597</v>
+        <v>412.1200778037004</v>
       </c>
       <c r="Q15" t="n">
         <v>233.0438950105733</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M17" t="n">
-        <v>495.2112293845268</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O17" t="n">
         <v>552.6880856233105</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>146.3615014728657</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269929</v>
+        <v>257.2442400081082</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
         <v>233.0438950105733</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>346.0836123757406</v>
+        <v>211.7144734559829</v>
       </c>
       <c r="M21" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N21" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
         <v>233.0438950105733</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>68.29072693268387</v>
       </c>
       <c r="L24" t="n">
-        <v>138.615755571408</v>
+        <v>228.1588793659822</v>
       </c>
       <c r="M24" t="n">
         <v>647.0155045122269</v>
@@ -36454,10 +36454,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
-        <v>187.8582770930086</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N26" t="n">
-        <v>447.0280453124388</v>
+        <v>447.0280453124392</v>
       </c>
       <c r="O26" t="n">
         <v>552.6880856233105</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N27" t="n">
-        <v>248.768981579367</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>428.2502711927643</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q27" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L29" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M29" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N29" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O29" t="n">
-        <v>552.6880856233105</v>
+        <v>353.9054127035411</v>
       </c>
       <c r="P29" t="n">
         <v>433.6515619588832</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K30" t="n">
         <v>332.7559639452625</v>
@@ -36922,7 +36922,7 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N30" t="n">
-        <v>368.6268117378473</v>
+        <v>248.7689815793677</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
@@ -37074,13 +37074,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M32" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124392</v>
       </c>
       <c r="O32" t="n">
         <v>552.6880856233105</v>
@@ -37150,19 +37150,19 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K33" t="n">
-        <v>285.9968516713569</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L33" t="n">
         <v>138.615755571408</v>
       </c>
       <c r="M33" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N33" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O33" t="n">
-        <v>554.9858674269929</v>
+        <v>515.833700064659</v>
       </c>
       <c r="P33" t="n">
         <v>428.2502711927643</v>
@@ -37311,13 +37311,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>391.466876574329</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M35" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124392</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
@@ -37390,19 +37390,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
-        <v>509.4561008748672</v>
+        <v>410.3194119374401</v>
       </c>
       <c r="M36" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>248.7689815793677</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P36" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q36" t="n">
         <v>233.0438950105733</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K38" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L38" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
-        <v>353.9054127035411</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P38" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q38" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N39" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O39" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>317.2553593571602</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
         <v>233.0438950105733</v>
@@ -37782,25 +37782,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K41" t="n">
-        <v>407.5425384040863</v>
+        <v>268.6656066160153</v>
       </c>
       <c r="L41" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N41" t="n">
-        <v>447.0280453124392</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O41" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P41" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L42" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M42" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N42" t="n">
-        <v>248.7689815793677</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O42" t="n">
         <v>554.9858674269929</v>
@@ -37879,7 +37879,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
-        <v>233.0438950105733</v>
+        <v>112.5097310692981</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>142.7188989979268</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K44" t="n">
-        <v>265.1496620711948</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>366.2161088634757</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>439.4753141521137</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N44" t="n">
-        <v>451.2468966962618</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O44" t="n">
-        <v>412.6296878387752</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>317.320396228044</v>
+        <v>266.7212079814955</v>
       </c>
       <c r="Q44" t="n">
-        <v>189.6350624384688</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R44" t="n">
-        <v>24.03732366427519</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>65.99447230164199</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
-        <v>351.3359202564913</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>304.6076395983404</v>
+        <v>237.6981314716526</v>
       </c>
       <c r="M45" t="n">
-        <v>375.0151400902926</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>399.4948617396896</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O45" t="n">
-        <v>343.0155132610399</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P45" t="n">
-        <v>574.2346090730709</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.5532711010011</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.61748182628833</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>176.5323263084932</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L46" t="n">
-        <v>281.9879074019113</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8107744650524</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>305.9812337764082</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>266.4451176130444</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>204.2315630567353</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.12148936456056</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
